--- a/output_data/customer_list-0.xlsx
+++ b/output_data/customer_list-0.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="117" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -543,6 +543,6171 @@
       <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Company introduction / Profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Allseas Marine Services Pte Ltd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>www.allseasmarine.com.sg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Irene Lim</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>irene@asm.com.sg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>+65 62652655</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>+65 62657622</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>66 Kian Teck Road 628796 Singapore</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>IMG_7500.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Atlantic Refrigeration Ltd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FX United Kingdom</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>www.atlantic-refrigeration.co.uk</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Penny Moore</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Finance Director</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>pennymoore@atlantic-refrig.co.uk</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Atlantic Refrigeration Ltd Fearless F4 Daedalus Park Daedalus Drive Lee on Solent PO13 9FX United Kingdom</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>IMG_7501.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5. ww</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>www.beservicegroup.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Enrico Venezia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>evenezia@bcserviceinc.com</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>+1 3053360527</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>13181 NW 43rd Avenue, Miami, 33054 USA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>IMG_7502.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BlohmVoss B.V. &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>www.blohmvoss.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Oliver Kirmse; Stephan M. Friedrich</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Head of Sales; Managing Director of Luerssen Repair GmbH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>oliver.kirmse@blohmvoss.com;friedrich@luerssen.de</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+49 40 3119</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+49 40 3119</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Hermann-Blohm-StraBe 3 Hamburg 20457 Germany</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>IMG_7503.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boilerman Service International Ltd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>www.bm-maritime.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Eddie Zhu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>eddiezhu@boilerman-service.com</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>+86 2150808750</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>+86 2168738650</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Suite G-C, No. 1361 Dong Fang Rad, Pudong, 200127, shanghai, China</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>IMG_7504.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Grev Wedels plass</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>www.bureauveritas.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Gunnar Kjeldsen</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Business Development Manager</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sen@inspectorate.com</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+47 95722824</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Grev Wedels plass 5 0151</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>IMG_7505.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C.A.C Industri &amp; Marine Ltd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>www.cacim.dk</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lars Skeldrup</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>las@cac.dk</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+45 51228450</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>sintrupvej 12 Brabrand DK - 8220 Denmark</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>IMG_7506.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CAESAR SHIPPING SERVICES CO.LTD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>www.scship.com.cn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Stone Sun</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>stonesun@scship.com.cn</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+86 21 65897856</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+86 21 65156956</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ROOM 1008 , SUITE NO 9, PING LIANG ROAD NO 988, SHANGHAI, P.R.CHINA 200082 China</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>IMG_7507.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cargo Care Solutions</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GC The Netherlands</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>www.cargocaresolutions.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Peter Peltenburg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>pp@cargocaresolutions.com</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+31 104293222</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Albert Plesmanweg 107D Rotterdam 3088 GC The Netherlands</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>IMG_7508.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cobalt Blue</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>www.cobaltblue-marine.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Costa latrou</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Owner &amp; CEO</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cobalt@cobaltblue-marine.com</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+30 2104181203</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+30 2104181307</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>98B, Filonos Street 185 36 Piraeus 18536 Greece</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>IMG_7509.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Damen Schelde Marine Services</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NA The Netherlands</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Jeroen Caris</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sales Manager - Europe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>jc@dsms247.biz</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+31 113712006</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Koningsweg 2 Vlissingen 4381 NA The Netherlands</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>IMG_7510.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Darwit &amp; Sunny Marine Co. Ltd</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>www.darwitsunny.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hyun Cheol Bae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>dawitmarine@naver.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+82 512567371</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+82 512567372</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>27 Haeyang-ro, Cheong Hak-dong, 49000, Korea</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>IMG_7511.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Datema Delfzijl BV</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>HX The Netherlands</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>www.datema.nl</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Jelle Glas</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>International Sales Manager</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>jelle@datema.nl</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+31 596635252</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>+31 596615245</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Zeesluizen 8 9936 HX The Netherlands</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>IMG_7512.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DB SCHENKER</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>www.dbschenker.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Helge Jensen; Silvia Belina</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Global Product Management; Director VM Marineparts</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>helge.jensen@dbschenker.com;belina@dbschenker.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+45 40622610</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TRUE MOELLEVEJ 9 TILST 8381 Denmark</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>IMG_7513.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Den-Jet Marine Pte Ltd.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>www.denjet.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Anders Christensen</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sales Manager - Europe</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ac@denjet.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+65 62681238</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>+65 62682270</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>101 Second Lok Yang Road 628172 Singapore</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>IMG_7514.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DHV - Marine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Duderstadt</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>www.dhv-marine.de</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Axel Grissmer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sales.team@dhv-marine.de</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+49 5527999644</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Bostalstrasse 24 Duderstadt 37115</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>IMG_7515.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECHA Microbiology</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OEF United Kingdom</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>www.echamicrobiology.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mike Haywood</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sales &amp; Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>mhaywood@echamicrobiology.com</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+44 2920365930</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>+44 2920361195</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Units 22 &amp; 23 Willowbrook Technology Park Llandogo Road CF3 OEF United Kingdom</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>IMG_7516.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Emerson Automation Solutions</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Michael Moeller</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Area Sales Manager</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Michael.F.Moeller@Emerson.Com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+45 55787200</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Aaderupvej 41 4700 Denmark</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>IMG_7517.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LJ The Netherlands</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jane Goedhart</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Area Sales Manager</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>jane@turbopartners.eu</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+31 181650040</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Lorentzweg 33F Spijkenisse 3208 LJ The Netherlands</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>IMG_7518.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ExactEarth</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>www.exactearth.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Carl Puddy; Zach Bogdon</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Commercial Sales Manager; Commercial Sales Rep</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Carl.puddy@exactearth.com</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+1 5196224445</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>260 Holiday Inn Drive Unit 30, BLDG °B’ Cambridge, Ontario N3C 4E8 Canada</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>IMG_7519.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dendermonde B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Karel Sillis</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>karel.sillis@exsil.be</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+92 52260150</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Schaapveld 14 Dendermonde B 9200</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>IMG_7520.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Eye-Share AS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Maskinv</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>www.eye-share.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Kenneth Saetre</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>kenneth@eye-share.no</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+47 90414174</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Maskinv 15</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>IMG_7521.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>www.fil-tec-rixen.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bjorn Boer</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Area Manager</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>b.boeer@fil-tec-rixen.com</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+49 4065685626</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>+49 406565731</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Osterrade 26 21031 Germany</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>IMG_7522.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fire Protection Service Inc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>www.fps-usa.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Shane Bradley</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>shane@fps-usa.com</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+1 7139249600</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>+1 7139236272</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PO Box 5218 Houston, Texas 77262 United States of America</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>IMG_7523.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hosang Jeon</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>jeon@gandptech.com</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+82 517142310</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>+82 517181303</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Suite 1107 Centrum Green Tower Centrum Jungang-Ro 78, Busan 48059 Korea</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>IMG_7524.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6.J. Wortelboer Jr. B.V.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AA Rotterdam</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>www.wortelboer.nl</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Deborah Liebeek</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>International Account Manager</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>deborah@wortelboer.nt</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+31 0104292222</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>P.O. box 5003 3008 AA Rotterdam</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>IMG_7525.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hh CS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>www.gazpromneft-oil.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Roman Miroshnichenko</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Branch Director</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Miroshnichenko.RV@gazprom-neft.ru</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+7 8124497445</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>+7 8124497446</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>3 line Vasylivsky Ostrov, 62 lit A office 131 199178, Russia</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>IMG_7526.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gerflor</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Christian Kerhoas</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sales Area Manager</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>kerhoas@gerflor.com</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+33 474054000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>+33 474050683</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>43 Boulevard Garibaldi TARARE 69170 France</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>IMG_7527.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gimas Ship Supply &amp; Services B.V.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sukru Memisoglu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Regional Manager</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>sukru.memisoglu@gimas.com</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+31 103027820</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>+31 103027829</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Jan van Galenstraat 9, 3115 JG Schiedam Rotterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>IMG_7528.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GLINAR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AY United Kingdom</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>www.glinar.com</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sergei Kurpish</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>technical@glinar.com</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+44 2037348354</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>47, Churchfield Road W3 6AY United Kingdom</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>IMG_7529.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Global Marine Forwarding BV</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AT Netherlands</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>www.gmfnl.com</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Raymon Barbier</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+31 104373770</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Vareseweg 113 3047 AT Netherlands</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>IMG_7530.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Globesea Supply &amp; Trading Co Ltd</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Richard Wang; Helen Sun</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Deputy General Manager; General Manager</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sales@globesea.com.cn</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+86 13921976399</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>+86 0512 36882671</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>No. 5 Asia Pacific Plaza 16-12, 18 Zhao Feng Road, Kunshan City 215332 China</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>IMG_7531.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GM Instrumentation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>www.gminstrumentation.co.uk</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Carl McGee</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sales@gminstrumentation.co.uk</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+44 1942 674</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>+44 1942 677272</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>115, Railway Road, Leigh, Lancashire, WN7 4AJ, United Kingdom</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>IMG_7532.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Golden Harvest Shipping Service Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>www.cn-goldenharvest.com</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Him Ho</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>cn-go@enharvest.com</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+86 21 65318899</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>+86 21 65842994</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1405 Yixian Road, Baoshan District, Shanghai, P.R. 200439 China</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>IMG_7533.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Goltens Rotterdam BY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LJ Spijkenisse The Netherlands</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>www.goltens.com</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Petra Van Den Engel</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Senior Sales Engineer</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>petra.engel@goltens.com</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+31 181465100</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Lorentzweg 29 3208 LJ Spijkenisse The Netherlands</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>IMG_7534.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Graco</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Belgié</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>www.graco.com</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Louis de Hillerin; Emmanuele Filippo</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>IPD Sales Manager Process; AFTD / !PD Trade Channel Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>hillerin@graco.com</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+32 491903302</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Slakweidestraat 31 3630 Belgié</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>IMG_7535.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gulf Turbo Solutions</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>www.gulfturbo.com</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Rehan Karanjia</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>gt.sales@gulfturbo.com</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+971 44385570</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>A4/72, SAIF Zone, Sharjah, UAE W/S 1328, Dubai Maritime City, Dubai, UAE Mechanical Shop, ASRY, Kingdom of Bahrain 53, Tuas View Loop, Singapore United Arab Emirates, Singapore, Bahrain</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>IMG_7536.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GUMATECH MARINE SERVICES</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>www.gumatech.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Saikrishna Gannavaram; Shwetha Gannavaram</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Marketing Manager; Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>mktg2@gumatech.com;30@gmail.com;general@gumatech.com;shwetha2475@gmail.com</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+91 8341083410</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>+91 02228446302</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>221, Madhav Darshan, Waghawadi Road, Bhavnagar 364002 India</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>IMG_7537.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Guven Kepce Makine Ic Ve Dis Tic td Sti</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>www.guvengrab.com</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Engin Demir; Omer Demir</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sales and Export Manager; Sales Manager</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+50 2627438858</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>+90 2627431141</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Nazim Hikmet Cad 536 No.9 Akse Koyu Cayriova Kocaeli 41420 Turkey</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>IMG_7538.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>H.CEGIELSKI-Poznan S.A.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poznan</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Michal Radomski</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sales and Service Coordinator</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>m.radomski@hcp.com.pl</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+48 618311133</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ul. 28 Czerwea 1956 r. no 223/229 61-485 Poznan</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>IMG_7539.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>www.hasytec.com</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jan Kelling</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Director Sales &amp; Projects</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>j-kelling@hasytec.com</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+49 43489192222</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>+49 43489192225</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Sohren 44 24232, Germany</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>IMG_7540.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HAT-SAN SHIPYARD</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>www.hat-san.com.tr</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Korhan Kiziltug; Engin Aybar</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Repair Marketing; New Building Marketing</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>korhan.kiziltug@hat-san.com.tr</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+9 226 461</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>+90 226 461</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Hat-San Tersanesi Hersek Mah. Tersaneler Cad. No:32 Turkey 77700 Turkey</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>IMG_7541.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hoyer Motors</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>www.hoyermotors.com</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Brian Byskov</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Global Key Account Manager</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>brb@hoyermotors.com</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+45 86982111</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>+45 86982256</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Over Hadstenve| 42 8370 Denmark</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>IMG_7542.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>I.D.A.L Group S.C.ar.t</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>www.idalgroup.it</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Giancarlo Coletta</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vice President</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+39 0818013031</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>+39 0818011538</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Via Cupa delle Grotte, 2 Napoli 80050</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>IMG_7543.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>International Ship Engineering Service ISES Association</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>www.isesassociation.com</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pepe Bris</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Secretary General</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>secretariat@isesassociation.com</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+34 927042805</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>: Avenida Maria Auxiliadora 22, 4-B 10003, Caceres, Spain</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>IMG_7544.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Inventory Locator Service - A Boeing Company</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>www.ilsmart.com</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Wendy Hook; Sheila Davis</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Area Sales Manager; Product Lead</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>whook@ilsmart.com</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+1 9017945000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>8001 Centerview Parkway 38018 United States</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>IMG_7545.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KET Marine International B.V</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AR The Nethelands</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>www.ketmarine.nl</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Joost Miserus; Rob Schriel</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sales &amp; Marketing Manager; Managing Director</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>j.miserus@ketmarine.nl</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+31 168328550</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Koperslagerij 23 Zevenbergen 4762 AR The Nethelands</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>IMG_7546.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Kloska Group</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>www.kloska.com</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Christian Tieck; Jiirgen Theilen</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sales Representative Kloska Group; Sales Representative Kloska Group</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c.tieck@kloshka.com</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+49 421 61802</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>+49 421 61802</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Pillauer Str. 15 28217 Bremen</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>IMG_7547.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lagersmit</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD Alblasserdam The Netherlands</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>www.lagersmit.com</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Keke Liu; Jan Willem Bongers</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Account Manager; Account Manager</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>liu@lagersmit.com</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+31 880216200</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>+31 880216249</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Nieuwland Parc 306 2952 DD Alblasserdam The Netherlands</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>IMG_7548.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Leader Marine China Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>www.leadermarine.com</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Robert Zhang</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>zhang@leadermarine.com</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+86 21</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Suite 616,cimic tower no.1090 century ave. pudong new area, Shanghai, 200120 China</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>IMG_7549.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lindemann Marine Products Aps</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Olstykke</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>www.lindemann.dk</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Simon Lindemann</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CEQ</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>sbl@tindemann.dk</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+45 48141111</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Svalehojveg 7 Olstykke 3650</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>IMG_7550.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lloyds Register GMT Ltd.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RF United Kingdom</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Maria Kyratsoudi</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Regional FOBAS Business Development Manager</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Maria.Kyratsoudi@tr.org</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>+44 1642440991</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>+44 1642458537</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>The Wilton Centre, Redcar, Cleveland TS10 4RF United Kingdom</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>IMG_7551.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LUKOIL Marine Lubricants GmbH</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>www.lukoilmarine.com</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Thies Eberstein</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sales Manager Northern Europe</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ebersteint@lukoil.com</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+49 015209088756</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>+49 015209088756</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Grobe Backerstr. 13 Hamburg 20095</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>IMG_7552.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MARES Shipping GmbH</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>www.mares.de</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Simon Gloe; Sarah Maria Serce</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sales &amp; Purchase/Head of Department - Germany; Sales &amp; Purchase/Team Coordinator</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>gl@mares.de</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+49 40 374</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>+49 40 374</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mattentwiete 8, 20457 Hamburg,</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>IMG_7553.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Marine Marketing Services Birkenhead Ltd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>OAB United Kingdom</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>www.marinemarketingservices.co.uk</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Mark Franey</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sales@marinemarketingservices.co.uk</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+44 151 200</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>+44 151 201</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Office 53 - Big Padlock, Champion Business Park, Arrowe Brook Road, Upton CH49 OAB United Kingdom</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>IMG_7554.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Marine Support</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mykalis Street Piraeus</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>www.marinesupport.com.gr</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Giannis Pontikos</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>cool@marinesupport.com</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+30 2104637371</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>+30 2104637372</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>26 Mykalis Street Piraeus 18540</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>IMG_7555.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Marine Technic a/s</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Naestved Denmark</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>www.marinetechnic.com</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Thomas Thorsen</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Owner/sales manager</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>thomasf@marinetechnic.com</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+45 55782040</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Depotvej 3 4700 Naestved Denmark</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>IMG_7556.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Martechnic GmbH</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>www.martechnic.com</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Frank Herholdt</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>t@martechnic.com</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+49 40 8531280</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>+49 40 85312816</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Adlerhorst 4, Hamburg 22459</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>IMG_7557.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Martin Bruusgaard AS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A sandvika N-</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>www.Druusgaard.no</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Roar Kristiansen</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+47 67549330</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Eyvind Lyches vei 19A sandvika N-1338</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>IMG_7558.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Melita Marine Group</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The Strand Gzira GZR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>www.melitamarinegroup.net</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pierre Balzan</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>p.balzan@melitamarinegroup.net</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+356 21330964</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>201, The Strand Gzira GZR 1023</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>IMG_7559.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MeteoGroup Nederland BY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AP The Netherlands</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Marinus van Peer</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sales Executive Shipping</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>rene.vanpeer@meteogroup.com</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+31 317399800</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>+31 317423164</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Agro Businesspark 99-101 P.0.Box 617 Wageningen 6700 AP The Netherlands</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>IMG_7560.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>METRO TECHNICAL SHIP SUPPLY - VALVECO TURKEY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>www.mssmaritime.com</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Zafer Yilmaz</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>zafer@mssmaritime.com</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+90 2164934355</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>+90 2164938760</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Aydintepe MH E5 Karayolu Uzeri Bahar |S Merkezi NO.14 Tuzla Istanbul 34947 Turkey</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>IMG_7561.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>www.mef.ae</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ryusaku Hayashi</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>hayashir@mef.ae</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+971 4509 2066</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>+971 4 347</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>street 18, Building 10, Al Quoz Industrial Area 3, Dubai 19227 United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>IMG_7562.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mistral Suisse Sagl</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>www.mistralsuisse.ch</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cinzia Borghi</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sales Manager &amp; Deputy MD</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>info@mistralsuisse.ch</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+41 912601570</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Via Cantonale 11 6900 Switzerland</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>IMG_7563.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Mator-Service Sweden AB</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vagnharad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>www.motor-service.se</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Anna Cederth Lidholm</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>anna.cl@motor-service.se</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+46 15634040</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Molnafabriksvag 8 Vagnharad 61072</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>IMG_7564.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Navikon SRY sp. 2 0.0.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>www.navikon.pl</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Michal Kowalski</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Head of Ship Repairs</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>michal.kowalski@navikon.pl</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+48 913220880</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>+48 913220880</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Ludzi morza 13 72-602 Polska</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>IMG_7565.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>nnn nnn a</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Anton Pramatarov; The Netherlands</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Managin Director NBS Maritime BY,; The Netherlands</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>marketing@nbs-maritime.com</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+31 52683373</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>+31 52683155</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1 Primorski blvd., Varna 9000 Bulgaria</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>IMG_7566.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NeKo Ship Supply B.V.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AD Netherlands .</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>www.nekoship.nl</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Eric Bezemer; Mario Adam</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Commercial Director; General Manager - NeKo Ship Supply SL</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ebezemer@nekoship.nl</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+31 108005535</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>+31 108005500</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Columbusstraad 22-26 Port Number 2768 Rotterdam 3165 AD Netherlands . ,</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>IMG_7567.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Oceanic Technical Solutions Ltd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DAB United Kingdom</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>www.oceanictechnical.com</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Robert Chesters</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>r.chesters@oceanictechnical.com</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+44 1513742079</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Unit 59 - Big Padlock Champion Business Park Arrowe Brook road Upton , Wirral CH49 DAB United Kingdom</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>IMG_7568.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ozgen Ship Supply</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Emre Ozgen; Alpgiray Mahmutoglu</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Managing Director; International Sales Manager</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>info@ozgenshipsupply.com</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+90 2163950532</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>+90 2163957248</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Head Office: EVLIYA CELEB] MAH RAUF ORBAY CAD NO:15/15A TUZLA - ISTANBUL Branch Office: MARIN CARS| NO:19-20 ALTINOVA TERSANELER BOLGESI, YALOVA 34944 Turkey</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>IMG_7569.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Peters  Bey GmbH</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Reinbek</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>www.peters-bey.com</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Henrik Nitzsche</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Deputy Sales Manager</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>nitzsche@peters-bey.com</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+49 40</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>+49 40</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>senefelder-Ring 9 21465 Reinbek</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>IMG_7570.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PFC Marine</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>www.pfcmarine.co.uk</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Joy Clark</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sales &amp; Export Manager</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>jclark@pfcmarine.co.uk</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+44 1915183448</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>+44 1915863555</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Unit 8 Seaview Industrial Estate Horden, Peterlee, Co Durham SR8 410 United Kingdom</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>IMG_7571.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Piri Reis Ship Supply &amp; Repairs</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Sercan Kacar</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>sercan@pirireissupply.com</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+90 2323418282</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>+90 2323460330</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Anadolu Cad No 45/6 01-2 Bayrakli / Izmir 35560 Turkey</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>IMG_7572.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Portland Harbour Authority</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PP England</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>www.portland-port.co.uk</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Paul Weldin</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Commerical Sales and Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+44 1305825340</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Castledown DT5 1PP England</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>IMG_7573.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Radio Ondas Servicios Maritimos S.L.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Aleksandar Smiljanic Tepic</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Marketing &amp; Sales Manager</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>as@rosmgroup.com</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+44 956661216</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Jacinto Benavente 15-B 11204 Algeciras</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>IMG_7574.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Restech Norway</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>www.restech.no</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Petter Olsen; Tommy Karlsen</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Chief Marketing Officer; Marketing Executive</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>p.olsen@restech.no</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+47 75542440</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PB 624 8001 Norway</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>IMG_7575.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Rexnavi srl</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>www.rexnavi.it</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Giorgia Viaggi</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sales Department</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>g.viaggi@rexnavi.it</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+39 187768139</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>+39 187768116</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Loc. Redebano Valgraveglia - Ricco del Golfo (SP} 19020 Italy</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>IMG_7576.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>RIC Marine &amp; Offshore Supplies Pte Ltd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Yu Heng</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>yu.heng@ric-marine.com.sg</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+65 62653849</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>+65 62660652</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>11 Second Chin Bee Road 618777 Singapore</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>IMG_7577.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LG Nederland</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>www.rmpropulsion.com</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Robin Mulders</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>info@rmpropulsion.com</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+31 621192433</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Neutronweg 45 1627 LG Nederland</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>IMG_7578.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RoamingExpert</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BL United Kingdom</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>www.roamingexpert.com</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Mark Pattman</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>mark@roamingexpert.com</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>14 South Preston Office Village, Cuerden Way, Preston, Lancashire PR5 6BL United Kingdom</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>IMG_7579.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Roodhart Marine Services BV</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>HJ The Netherlands</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>www.roodhart.com</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Joey de Roode</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+31 104280122</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>+31 104953544</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Waalhaven ZZ 52-66 3088 HJ The Netherlands</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>IMG_7580.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>eae</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>www.roxtec.com</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Francesco Solzi; Morten Gustavsen</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Marine Segment Manager; Key Account Manager</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>francesco.solzi@roxtec.com</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+46 455366700</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Roxtec International AB Box 520, SE-37123 Karlskrona, sweden 371 23</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>IMG_7581.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>www.salvogrima.com</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Malcolm Sammut</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>msammut@salvogrima.com.mt</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+356 25607159</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Marina Milling Complex, Industrial Estate Marsa MRS3000 Malta</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>IMG_7582.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sander Marine - Wilhelm Sander Fertigung GmbH</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>www.sander-marine.com</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Gregor Wojciechowski</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Area Sales Manager</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>G.Wojciechowski@sander-marine.com</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+49 421 48603</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>+49 421 48603</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Zum Panrepel 41 Bremen 28307</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>IMG_7583.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sandvik Marine Electronics SL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>www.sandvikservice.com</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Eivind Nordskog; Luis Cervantes</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Managing Director; Business manager</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>nordskog@sandvikservice.com</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+34 956099101</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>+34 956099102</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Calle Oceano Pacifico 1 Mas Larismas del Palmones Los Barrios (Gibraltar/Algeciras bay) 11379 Spain</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>IMG_7584.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Schmitt Anchors &amp; Chaincables B.V</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>LC The Netherlands</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>www.schmitt-anchors.com</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Xander Scheffel</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>General Manager</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>info@schmitt-anchors.com</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Kreekweg 10 3336 LC The Netherlands</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>IMG_7585.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> www</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jaffestrasse</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>www.seaserv.net</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Henning Weise</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>CEO / Owner</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>henning.weise@seaserv.net</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+49 40 6000</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>+49 40 6000</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Jaffestrasse 6</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>IMG_7586.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Seldis Polysteen</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Deutschland</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>www.seldis.de</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Stephan Weise</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>se@is.de</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+49 4037494924</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>+49 40365178</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Martin-Luther-Str. 20 20459 Deutschland</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>IMG_7587.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Seraphic Energy Limited</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ashley Road TST KLN HONG KONG NA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>www.senergyhk.com</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>oagar Tanksali</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Executive Director</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>st@senergyhk.com</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+91 9483532427</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Unit 905, 9/F Kowloon CTR 33 Ashley Road TST KLN HONG KONG NA</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>IMG_7588.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Shanghai Hishine Machinery Co Ltd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>www.hishine.com</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Ning Song</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Operation Director</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>sonia@hishine.com</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+86 2161639777</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>812 NO1438 North Shanxi Road Shanghai 200060 China</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>IMG_7589.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ships Ink. B.V.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>KD The Netherlands</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>www.shipsink.com</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Bart Mennega</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>bart@shipsink.com</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+31 85 401</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Goudsesingel 78 Rotterdam 3011 KD The Netherlands</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>IMG_7590.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>o5G Shipping Services BY</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>HK Schiedam The Netherlands</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>www.ssg.nl</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Simon Van Kampen</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>info@ssg.nl</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+31 640020525</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Admiral Trompstraat 13 3115HK Schiedam The Netherlands</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>IMG_7591.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>STOP AEBE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>www.stop.gr</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Kimon Spanos</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>kspanos@stop.gr;info@nt.stop.gr</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>+30 2104626800</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>+30 2104633718</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2-4 Anapafseos Str, Piraeus, 33F Lorentzweg Str, Spijkenisse Rotterdam 18546 Greece</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>IMG_7592.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Strongwell Europe</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>) United Kingdom</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>www.strongwell.com</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Richard Irvine</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>European Business Director</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>rirvine@strongwell.com</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+44 118 933</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>+44 2766458132</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PO Box 2465 RG) 52) United Kingdom</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>IMG_7593.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Suisca Group</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Javier Fernandez</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>j-fernandez@suisca.com</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>+34 928220000</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>+34 928227666</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Avda.de las Petroliferas s/n Bajo P. C-14 Las Palmas de Gran Canaria Canary Islands 35008 Spain</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>IMG_7594.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>www.svb-safety.com</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Merijn Struijs</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>struijs@svb-safety.com</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+49 40524701831</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Gaertherstrasse 816 25469 Germany</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>IMG_7595.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Tarhan Shipchandler and Trading Ltd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>www.tarhanshipping.com</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Necdet Tarhan</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>tarhan@tarhanshipping.com</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+90 2165771405</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>+90 5771413</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Tarhan Plaza Alanaldi Cad Bahcelerarasi Sok No 37 Kat 3 Atasehir 34752 Turkey</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>IMG_7596.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Teho Europe B.V</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>www.tehoeurope.nl</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Cees De Vries</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Business Development Manager</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ropes@tehoeurope.nl</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>+31 180820995</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Nikkelstraat 19 Am Ridderkerk 2984 The Netherlands</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>IMG_7597.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Telnav</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>www.telnav.com.br</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>samuel Mourao</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>samuel@tetnav.com.br</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+95 2227650859</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Rua Marajo, 90 27970020</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>IMG_7598.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>THB Verhoef BY</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>LR Netherlands</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>www.thbverhoef.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Frank Houtzager</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Senior Sales Manager</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>sales@tbhverdoef.com</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+31 180412133</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Daltonstraat 4 3335 LR Zwijndrecht 3335 LR Netherlands</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>IMG_7599.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The Gl Group Ltd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>AP United Kingdom</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Anna Pantelias</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>anna@gigroup.co.uk</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>+44 2084419993</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>+44 2084419844</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Gi Building 28 Lancaster Road New Barnet EN4 8AP United Kingdom</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>IMG_7600.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Total Lubmarine</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>www.totallubmarine.com</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Olivier Baumgartner</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Country Manager</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>baumgartner@total.com</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+49 4030973024</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Total Mineralél GmbH Liineburger Tor 10 Hamburg, 21073</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>IMG_7601.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Vallensbaek</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>www.trans-it.eu</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Martin Thomsen</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>martin@transit-dk.com</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+45 31313137</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Baekkeskowej 6 2665 Vallensbaek</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>IMG_7602.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Tranter International AB</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Solha</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>www.tranter.com</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Franco Langone</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Global Marine Service Manager</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>franco.langone@it.tranter.com</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>+46 84424970</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Karta Gatan 9 Solha 17159</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>IMG_7603.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Trelawny SPT</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>XT United Kingdom</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>www.trelawnyspt.co.uk</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Andrew Wade</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Export Sales Manager</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>andrew.wade@trelawny.co.uk</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>+44 1926883781</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>+44 1926450352</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Trelawny House 13 Highdown Road Sydenham Industrial Estate Leamington Spa CV31 1XT United Kingdom</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>IMG_7604.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>www.tryconenterprises.com</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>George Tsatalios</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>info@tryconenterprises.com</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+1 973</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>+1 973</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>271 US Highway 46, Unit D-202 Fairfield NJ 07004 United States</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>IMG_7605.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TSS Rotterdam B.V.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>The Netherlands</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>www.tssr.nl</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Tony van Buren</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Business development manager</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>tbu@tssr.nt</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>+31 104624500</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Kiotoweg 401 3047B6 The Netherlands</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>IMG_7606.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Tullp BV / MAEM Sp. z 0.0.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>The Netherlands &amp; Poland</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>www.tullp.com;www.maem.com</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Jeroen Bink; Kamil Sajek</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sales Manager; Head of Marketing</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Jeroen@tullp.com</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+31 162 571</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>+3112 145 08</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Bliek 17 Raamsdonksveer 22A, Bociana Str. Krakéw, Poland 004941 SG &amp; 31-231 The Netherlands &amp; Poland</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>IMG_7607.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Turbo Service International</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AA United Kingdom</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>www.tsi.eu.com</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Chris Aerts</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>chris.aerts@tsi.eu.com</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+44 2380861000</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>+44 2380863000</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>190 Commercial Road Totton, Southampton 5040 3AA United Kingdom</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>IMG_7608.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>UK Marine Parts Ltd.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>EB United Kingdom</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>www.ukmarineparts.co.uk</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Inese Luse</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>ina@ukmarineparts.co.uk</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+44 208 440</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>+44 208 440</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>80 Alverstone Avenue EN4 8EB United Kingdom</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>IMG_7609.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>UNIMARS GROUP</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Katerina Butenko; Oleg Butenko</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sales and Marketing Manager; Chairman of the Board</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>ekaterina@unimars.eu</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>+371 26871507</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Duntes Street 17 LV-1005 Latvia</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>IMG_7610.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Viking Life Saving Equipment</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Esbjerg</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>www.viking-life.com</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Dorte Hansen</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sales Director South West Europe</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>dmh@viking-life.com</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>+45 7611 81</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>+45 76 11</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Saedding Ringvej 6710 Esbjerg</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>IMG_7611.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>www.vms.dk</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Volker Czerwonka</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sales-Manager</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>vez@dt-interlink.com</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+45 96221100</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Havnepladsen 12, Building14 9900 Denmark</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>IMG_7612.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Wencon Aps</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Jyltandsvej</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Jan Taudal</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Area Sales Manager</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>wencon@wencon.com</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>+45 64811010</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>+45 64811010</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Jyltandsvej 15 5400</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>IMG_7613.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Kisdorfer Weg</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>www.wiska.com</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Denny Heusser</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sales Manager Shipbuilding &amp; Offshore</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>d.heusser@wiska.de</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>+49 4191508511</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Kisdorfer Weg 28</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>IMG_7614.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>World Clean International S.A.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>www.worldcleanint.com</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Astrid Moreno</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sales Manager</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>wor@cleanint.com</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>+507 2222324</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Panama City Transistmic St. Bethania, SAN ANTONIO, 0 ST. BUILDING WCI. 0000 Panama</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>IMG_7615.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>World Wide Metric</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>www.worldwidemetric.com</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>George Contos</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>w@emetric.com</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+1 732</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>37 Readington Road Branchburg, New Jersey other locations in: Ft. Lauderdale,FL; Houston, TX; Long Beach, CA and Livonia MI. 08876 United States</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>IMG_7616.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Zephyr Trading srl</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>La Spezia</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Paolo Castagnet</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>p.castagnet@zephyrtrading.com</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>+39 0187502341</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Via Valdilocchi 2 La Spezia 19126</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>IMG_7617.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>www.zitron.com</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Javier Torre</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Marine Division Manager</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>jtorre@zitron.com</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>+34 937793811</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>+34 937792392</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>C/ Lluis Cusd, 19-33 Poligono Industrial Geldense 08790 SPAIN</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>IMG_7618.csv</t>
         </is>
       </c>
     </row>
